--- a/Data/Bilançolar/BASGZ.xlsx
+++ b/Data/Bilançolar/BASGZ.xlsx
@@ -3993,7 +3993,7 @@
         <v>-11086341</v>
       </c>
       <c r="C83" t="n">
-        <v>-23063901</v>
+        <v>-6591888</v>
       </c>
       <c r="D83" t="n">
         <v>-9758515</v>
@@ -4036,7 +4036,7 @@
         <v>-47929523</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-23063901</v>
       </c>
       <c r="D84" t="n">
         <v>-75273507</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-6591888</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>29969136</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>29969136</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>29969136</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>29969136</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>112462620</v>
       </c>
       <c r="C104" t="n">
-        <v>347019367</v>
+        <v>376988503</v>
       </c>
       <c r="D104" t="n">
         <v>716656154</v>
@@ -5025,7 +5025,7 @@
         <v>112462620</v>
       </c>
       <c r="C107" t="n">
-        <v>347019367</v>
+        <v>376988503</v>
       </c>
       <c r="D107" t="n">
         <v>716656154</v>
@@ -5154,7 +5154,7 @@
         <v>112462620</v>
       </c>
       <c r="C110" t="n">
-        <v>347019367</v>
+        <v>376988503</v>
       </c>
       <c r="D110" t="n">
         <v>716656154</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
